--- a/data/trans_orig/P23_1_R_2016_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_R_2016_2023-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>232649</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>208706</v>
+        <v>207433</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>259821</v>
+        <v>257379</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3447679383926315</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3092852768575462</v>
+        <v>0.3073987836695125</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3850342185697835</v>
+        <v>0.3814150222951102</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>157</v>
@@ -763,19 +763,19 @@
         <v>158512</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>137515</v>
+        <v>137954</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>184133</v>
+        <v>182346</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2359753973619636</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2047177603118315</v>
+        <v>0.2053707447420379</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2741179720562227</v>
+        <v>0.2714570520223211</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>377</v>
@@ -784,19 +784,19 @@
         <v>391161</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>360978</v>
+        <v>357218</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>426382</v>
+        <v>422296</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2904956898290922</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2680798395146701</v>
+        <v>0.2652876383039857</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3166523150470937</v>
+        <v>0.3136182309401301</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>442151</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>414979</v>
+        <v>417421</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>466094</v>
+        <v>467367</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6552320616073685</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6149657814302164</v>
+        <v>0.6185849777048898</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6907147231424535</v>
+        <v>0.6926012163304877</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>508</v>
@@ -834,19 +834,19 @@
         <v>513218</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>487597</v>
+        <v>489384</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>534215</v>
+        <v>533776</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7640246026380364</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7258820279437772</v>
+        <v>0.7285429479776788</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7952822396881684</v>
+        <v>0.7946292552579621</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>940</v>
@@ -855,19 +855,19 @@
         <v>955369</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>920148</v>
+        <v>924234</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>985552</v>
+        <v>989312</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7095043101709078</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6833476849529062</v>
+        <v>0.6863817690598699</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7319201604853298</v>
+        <v>0.7347123616960143</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>309110</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>280017</v>
+        <v>280395</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>338959</v>
+        <v>342111</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3026461357827088</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2741611911952448</v>
+        <v>0.2745309295083019</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3318707422086242</v>
+        <v>0.334956338344692</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>239</v>
@@ -980,19 +980,19 @@
         <v>248231</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>219734</v>
+        <v>219779</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>276702</v>
+        <v>276815</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2382291732533111</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2108797613941481</v>
+        <v>0.2109232646654168</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2655525704067666</v>
+        <v>0.2656608339405019</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>520</v>
@@ -1001,19 +1001,19 @@
         <v>557342</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>519006</v>
+        <v>514260</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>601527</v>
+        <v>595685</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2701156816128588</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2515362616689618</v>
+        <v>0.2492359902734342</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2915303836664445</v>
+        <v>0.2886988002132534</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>712249</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>682400</v>
+        <v>679248</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>741342</v>
+        <v>740964</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6973538642172913</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6681292577913758</v>
+        <v>0.665043661655308</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7258388088047547</v>
+        <v>0.7254690704916977</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>737</v>
@@ -1051,19 +1051,19 @@
         <v>793754</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>765283</v>
+        <v>765170</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>822251</v>
+        <v>822206</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7617708267466888</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7344474295932335</v>
+        <v>0.7343391660594981</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7891202386058522</v>
+        <v>0.7890767353345831</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1406</v>
@@ -1072,19 +1072,19 @@
         <v>1506002</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1461817</v>
+        <v>1467659</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1544338</v>
+        <v>1549084</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7298843183871412</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7084696163335555</v>
+        <v>0.7113011997867469</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7484637383310383</v>
+        <v>0.7507640097265665</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>292014</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>263188</v>
+        <v>264936</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>320921</v>
+        <v>320708</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3848936799096774</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3468984652032477</v>
+        <v>0.3492026236738115</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.422994276797959</v>
+        <v>0.4227134423148015</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>201</v>
@@ -1197,19 +1197,19 @@
         <v>207664</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>183128</v>
+        <v>183716</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>230962</v>
+        <v>231323</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2652518338844349</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2339112699550135</v>
+        <v>0.234662120543055</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.295009740355933</v>
+        <v>0.2954712791775104</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>461</v>
@@ -1218,19 +1218,19 @@
         <v>499678</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>461596</v>
+        <v>460894</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>537537</v>
+        <v>539749</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3241334077844141</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2994302252148396</v>
+        <v>0.2989747665119126</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3486920996922032</v>
+        <v>0.3501267029181122</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>466674</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>437767</v>
+        <v>437980</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>495500</v>
+        <v>493752</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6151063200903225</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5770057232020411</v>
+        <v>0.5772865576851984</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6531015347967523</v>
+        <v>0.6507973763261889</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>533</v>
@@ -1268,19 +1268,19 @@
         <v>575231</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>551933</v>
+        <v>551572</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>599767</v>
+        <v>599179</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7347481661155651</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.704990259644067</v>
+        <v>0.7045287208224895</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7660887300449867</v>
+        <v>0.765337879456945</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>968</v>
@@ -1289,19 +1289,19 @@
         <v>1041904</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1004045</v>
+        <v>1001833</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1079986</v>
+        <v>1080688</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6758665922155859</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6513079003077968</v>
+        <v>0.649873297081888</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7005697747851604</v>
+        <v>0.7010252334880875</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>256618</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>230670</v>
+        <v>229608</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>283988</v>
+        <v>283935</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2737066996690445</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.246030890588116</v>
+        <v>0.2448976701305539</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.302898499323627</v>
+        <v>0.3028419888274866</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>224</v>
@@ -1414,19 +1414,19 @@
         <v>233168</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>205318</v>
+        <v>206238</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>261206</v>
+        <v>261234</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2236634403166888</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1969484920658584</v>
+        <v>0.1978317223167042</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2505584238971454</v>
+        <v>0.2505853798586457</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>476</v>
@@ -1435,19 +1435,19 @@
         <v>489786</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>449600</v>
+        <v>449041</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>528119</v>
+        <v>527484</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2473591344888735</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2270638599495233</v>
+        <v>0.2267814075164872</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2667185939482703</v>
+        <v>0.2663980704800626</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>680949</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>653579</v>
+        <v>653632</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>706897</v>
+        <v>707959</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7262933003309554</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6971015006763729</v>
+        <v>0.6971580111725134</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7539691094118838</v>
+        <v>0.7551023298694461</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>734</v>
@@ -1485,19 +1485,19 @@
         <v>809326</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>781288</v>
+        <v>781260</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>837176</v>
+        <v>836256</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7763365596833113</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7494415761028546</v>
+        <v>0.7494146201413543</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8030515079341417</v>
+        <v>0.8021682776832961</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1414</v>
@@ -1506,19 +1506,19 @@
         <v>1490275</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1451942</v>
+        <v>1452577</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1530461</v>
+        <v>1531020</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7526408655111265</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7332814060517296</v>
+        <v>0.7336019295199372</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7729361400504766</v>
+        <v>0.7732185924835128</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>1090392</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1032901</v>
+        <v>1034006</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1147265</v>
+        <v>1146673</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3214207709242772</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3044736486004316</v>
+        <v>0.3047993307146093</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3381855192489536</v>
+        <v>0.3380109153811833</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>821</v>
@@ -1631,19 +1631,19 @@
         <v>847575</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>795408</v>
+        <v>793285</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>902260</v>
+        <v>901754</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2394886124978119</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.224748469136502</v>
+        <v>0.2241485366542341</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2549403789690229</v>
+        <v>0.2547974147981649</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1834</v>
@@ -1652,19 +1652,19 @@
         <v>1937967</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1854040</v>
+        <v>1866061</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2011178</v>
+        <v>2025133</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2795877382340072</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2674796161425477</v>
+        <v>0.2692139544330885</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2901497687024669</v>
+        <v>0.2921630909554056</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>2302022</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2245149</v>
+        <v>2245741</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2359513</v>
+        <v>2358408</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6785792290757228</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6618144807510465</v>
+        <v>0.6619890846188168</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6955263513995684</v>
+        <v>0.6952006692853907</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2512</v>
@@ -1702,19 +1702,19 @@
         <v>2691528</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2636843</v>
+        <v>2637349</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2743695</v>
+        <v>2745818</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7605113875021881</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7450596210309774</v>
+        <v>0.745202585201835</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7752515308634981</v>
+        <v>0.7758514633457659</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4728</v>
@@ -1723,19 +1723,19 @@
         <v>4993550</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4920339</v>
+        <v>4906384</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5077477</v>
+        <v>5065456</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7204122617659928</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.709850231297533</v>
+        <v>0.7078369090445944</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7325203838574524</v>
+        <v>0.7307860455669115</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>184028</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>160513</v>
+        <v>160263</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>211664</v>
+        <v>212319</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2668516421606614</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2327523463121002</v>
+        <v>0.2323901789691091</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3069250983370294</v>
+        <v>0.3078751494226225</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>169</v>
@@ -2088,19 +2088,19 @@
         <v>119936</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>103694</v>
+        <v>104321</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>139833</v>
+        <v>142125</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1635975889308375</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1414436161303167</v>
+        <v>0.1422982546528752</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1907393352274794</v>
+        <v>0.1938650344704505</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>350</v>
@@ -2109,19 +2109,19 @@
         <v>303964</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>273742</v>
+        <v>275173</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>335867</v>
+        <v>337213</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2136466587891239</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1924044181978893</v>
+        <v>0.1934105350814731</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2360701177587541</v>
+        <v>0.2370164246012294</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>505600</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>477964</v>
+        <v>477309</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>529115</v>
+        <v>529365</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7331483578393385</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6930749016629706</v>
+        <v>0.6921248505773776</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7672476536878997</v>
+        <v>0.7676098210308909</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1070</v>
@@ -2159,19 +2159,19 @@
         <v>613177</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>593280</v>
+        <v>590988</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>629419</v>
+        <v>628792</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8364024110691625</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8092606647725207</v>
+        <v>0.8061349655295497</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8585563838696831</v>
+        <v>0.8577017453471247</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1618</v>
@@ -2180,19 +2180,19 @@
         <v>1118777</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1086874</v>
+        <v>1085528</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1148999</v>
+        <v>1147568</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.786353341210876</v>
+        <v>0.7863533412108762</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7639298822412457</v>
+        <v>0.7629835753987707</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8075955818021104</v>
+        <v>0.8065894649185269</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>233986</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>203342</v>
+        <v>204266</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>263992</v>
+        <v>267160</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2233168951752801</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1940702310523292</v>
+        <v>0.1949520396597234</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.251954972951239</v>
+        <v>0.2549783198012578</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>232</v>
@@ -2305,19 +2305,19 @@
         <v>172755</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>153597</v>
+        <v>152871</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>196049</v>
+        <v>197414</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.161327094707228</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1434358891995273</v>
+        <v>0.1427585870470573</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.183080060507675</v>
+        <v>0.1843551281826818</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>444</v>
@@ -2326,19 +2326,19 @@
         <v>406741</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>373785</v>
+        <v>370025</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>449148</v>
+        <v>447959</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.19198459442774</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1764291526507036</v>
+        <v>0.1746542178974657</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2120007498153586</v>
+        <v>0.2114396230841526</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>813790</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>783784</v>
+        <v>780616</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>844434</v>
+        <v>843510</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7766831048247198</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7480450270487612</v>
+        <v>0.7450216801987423</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.805929768947671</v>
+        <v>0.8050479603402767</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1284</v>
@@ -2376,19 +2376,19 @@
         <v>898083</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>874789</v>
+        <v>873424</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>917241</v>
+        <v>917967</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8386729052927721</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8169199394923276</v>
+        <v>0.8156448718173182</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8565641108004727</v>
+        <v>0.8572414129529426</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2035</v>
@@ -2397,19 +2397,19 @@
         <v>1711873</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1669466</v>
+        <v>1670655</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1744829</v>
+        <v>1748589</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8080154055722599</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7879992501846415</v>
+        <v>0.7885603769158472</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8235708473492963</v>
+        <v>0.8253457821025344</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>181148</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>154428</v>
+        <v>155259</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>210130</v>
+        <v>210436</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2259000374232938</v>
+        <v>0.2259000374232937</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1925788374955217</v>
+        <v>0.1936147683932362</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2620415766055437</v>
+        <v>0.2624239837992257</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>192</v>
@@ -2522,19 +2522,19 @@
         <v>151049</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>130656</v>
+        <v>130020</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>172215</v>
+        <v>171943</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1859618545388396</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1608549214276199</v>
+        <v>0.1600716996064508</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2120195737132553</v>
+        <v>0.2116843871057071</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>336</v>
@@ -2543,19 +2543,19 @@
         <v>332197</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>299265</v>
+        <v>298112</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>367679</v>
+        <v>370634</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2058027352975423</v>
+        <v>0.2058027352975424</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1854006259584262</v>
+        <v>0.1846860050359146</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2277843980195382</v>
+        <v>0.2296152355400495</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>620747</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>591765</v>
+        <v>591459</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>647467</v>
+        <v>646636</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7740999625767063</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7379584233944563</v>
+        <v>0.737576016200774</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8074211625044782</v>
+        <v>0.8063852316067638</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>855</v>
@@ -2593,19 +2593,19 @@
         <v>661210</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>640044</v>
+        <v>640316</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>681603</v>
+        <v>682239</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8140381454611604</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7879804262867446</v>
+        <v>0.788315612894293</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8391450785723801</v>
+        <v>0.8399283003935493</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1386</v>
@@ -2614,19 +2614,19 @@
         <v>1281957</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1246475</v>
+        <v>1243520</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1314889</v>
+        <v>1316042</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7941972647024576</v>
+        <v>0.7941972647024577</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7722156019804617</v>
+        <v>0.7703847644599503</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8145993740415738</v>
+        <v>0.8153139949640854</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>222897</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>195555</v>
+        <v>195248</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>249120</v>
+        <v>250051</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2251346102787104</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1975182916416271</v>
+        <v>0.1972077854077308</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2516203297390647</v>
+        <v>0.2525606235067631</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>256</v>
@@ -2739,19 +2739,19 @@
         <v>186741</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>165866</v>
+        <v>166180</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>210080</v>
+        <v>209472</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1674551178708154</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1487357380169232</v>
+        <v>0.1490180285156344</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1883837530240396</v>
+        <v>0.1878388399931938</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>475</v>
@@ -2760,19 +2760,19 @@
         <v>409638</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>375558</v>
+        <v>374797</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>448450</v>
+        <v>446063</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1945810084031811</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.178392812429272</v>
+        <v>0.1780310719639699</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2130170930372696</v>
+        <v>0.2118828558527783</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>767165</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>740942</v>
+        <v>740011</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>794507</v>
+        <v>794814</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7748653897212896</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7483796702609353</v>
+        <v>0.7474393764932369</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8024817083583734</v>
+        <v>0.8027922145922691</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1303</v>
@@ -2810,19 +2810,19 @@
         <v>928429</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>905090</v>
+        <v>905698</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>949304</v>
+        <v>948990</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8325448821291845</v>
+        <v>0.8325448821291848</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8116162469759605</v>
+        <v>0.812161160006806</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8512642619830767</v>
+        <v>0.8509819714843654</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2090</v>
@@ -2831,19 +2831,19 @@
         <v>1695594</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1656782</v>
+        <v>1659169</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1729674</v>
+        <v>1730435</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8054189915968188</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7869829069627302</v>
+        <v>0.7881171441472218</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8216071875707281</v>
+        <v>0.8219689280360302</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>822060</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>768167</v>
+        <v>768505</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>878540</v>
+        <v>875947</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.232920286400674</v>
+        <v>0.2329202864006739</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2176505075399477</v>
+        <v>0.2177460946047874</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2489232168708154</v>
+        <v>0.2481886344062854</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>849</v>
@@ -2956,19 +2956,19 @@
         <v>630481</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>589467</v>
+        <v>591246</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>670865</v>
+        <v>678133</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1689671944668214</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.157975652036824</v>
+        <v>0.1584522440002269</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1797901128163412</v>
+        <v>0.1817378517229384</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1605</v>
@@ -2977,19 +2977,19 @@
         <v>1452540</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1383567</v>
+        <v>1387153</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1524182</v>
+        <v>1528361</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2000540422870054</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1905545921188131</v>
+        <v>0.1910484833846902</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2099210109401287</v>
+        <v>0.2104965900497094</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>2707301</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2650821</v>
+        <v>2653414</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2761194</v>
+        <v>2760856</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7670797135993259</v>
+        <v>0.7670797135993261</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7510767831291845</v>
+        <v>0.7518113655937145</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7823494924600524</v>
+        <v>0.7822539053952124</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4512</v>
@@ -3027,19 +3027,19 @@
         <v>3100899</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3060515</v>
+        <v>3053247</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3141913</v>
+        <v>3140134</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8310328055331786</v>
+        <v>0.8310328055331785</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8202098871836587</v>
+        <v>0.8182621482770616</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.842024347963176</v>
+        <v>0.8415477559997731</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7129</v>
@@ -3048,19 +3048,19 @@
         <v>5808200</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5736558</v>
+        <v>5732379</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5877173</v>
+        <v>5873587</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7999459577129947</v>
+        <v>0.7999459577129948</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7900789890598716</v>
+        <v>0.7895034099502906</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8094454078811869</v>
+        <v>0.8089515166153096</v>
       </c>
     </row>
     <row r="18">
